--- a/data/data_ananlyse/_buy_fv_3_sold_basic/max_0$$sold$$_buy_fv_3__sold_basic$$.xlsx
+++ b/data/data_ananlyse/_buy_fv_3_sold_basic/max_0$$sold$$_buy_fv_3__sold_basic$$.xlsx
@@ -503,7 +503,7 @@
         <v>20160816</v>
       </c>
       <c r="D6">
-        <v>3884.087135167411</v>
+        <v>3884.08713516741</v>
       </c>
       <c r="E6">
         <v>3403.3839</v>
@@ -603,7 +603,7 @@
         <v>20161202</v>
       </c>
       <c r="D11">
-        <v>3370.181809803627</v>
+        <v>3370.181809803626</v>
       </c>
       <c r="E11">
         <v>3559.7711</v>
@@ -743,7 +743,7 @@
         <v>20170725</v>
       </c>
       <c r="D18">
-        <v>2901.188314588218</v>
+        <v>2901.188314588217</v>
       </c>
       <c r="E18">
         <v>3742.6405</v>
@@ -783,7 +783,7 @@
         <v>20170828</v>
       </c>
       <c r="D20">
-        <v>19194.72636335221</v>
+        <v>19194.7263633522</v>
       </c>
       <c r="E20">
         <v>3805.6567</v>
@@ -823,7 +823,7 @@
         <v>20170905</v>
       </c>
       <c r="D22">
-        <v>4989.508959513559</v>
+        <v>4989.508959513558</v>
       </c>
       <c r="E22">
         <v>3845.5451</v>
@@ -863,7 +863,7 @@
         <v>20171009</v>
       </c>
       <c r="D24">
-        <v>19453.71554296039</v>
+        <v>19453.7155429604</v>
       </c>
       <c r="E24">
         <v>3910.1149</v>
@@ -1083,7 +1083,7 @@
         <v>20171122</v>
       </c>
       <c r="D35">
-        <v>6442.078981155477</v>
+        <v>6442.078981155478</v>
       </c>
       <c r="E35">
         <v>4228.3721</v>
@@ -1163,7 +1163,7 @@
         <v>20180124</v>
       </c>
       <c r="D39">
-        <v>5943.283978643576</v>
+        <v>5943.283978643574</v>
       </c>
       <c r="E39">
         <v>4389.4547</v>
@@ -1283,7 +1283,7 @@
         <v>20190319</v>
       </c>
       <c r="D45">
-        <v>5198.698937750832</v>
+        <v>5198.698937750831</v>
       </c>
       <c r="E45">
         <v>3856.5885</v>
